--- a/ドキュメント/外部設計/機能一覧詳細_E2_くまおに_完成版.xlsx
+++ b/ドキュメント/外部設計/機能一覧詳細_E2_くまおに_完成版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\ドキュメント\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC47534-44F0-4FEA-AED7-DEAD9596AA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09A5CFD-6DB5-4C53-A47E-5634D7CE19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1813,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1865,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="14">
         <f ca="1">TODAY()</f>
-        <v>45090</v>
+        <v>45093</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="15"/>
